--- a/P03 - Projet Excel/C13-PROJET-EXCEL-Coulombe-Morency-Julien.xlsx
+++ b/P03 - Projet Excel/C13-PROJET-EXCEL-Coulombe-Morency-Julien.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/Desktop/cvmClasses/C13/P03 - Projet Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienc./Desktop/cvmClasses/C13/P03 - Projet Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BE7BD9-D5A5-1A41-8A00-75DB81FC60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7BB926-4C3E-5D4A-A0EE-FB3AE4CD7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{A98E8DE4-72A2-B141-B5D9-627FBFA9583B}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{F60BB457-75BD-433B-A9FD-404A1EC8068E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Données - Calculs" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcMode="manual" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,32 +27,555 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+  <si>
+    <t>Conditions initiales de la simulation</t>
+  </si>
+  <si>
+    <t>Représentation des conditions initiales</t>
+  </si>
+  <si>
+    <t>ITÉ</t>
+  </si>
+  <si>
+    <t>Px</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Vx</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Ax</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>M1x</t>
+  </si>
+  <si>
+    <t>M1y</t>
+  </si>
+  <si>
+    <t>M2x</t>
+  </si>
+  <si>
+    <t>M2y</t>
+  </si>
+  <si>
+    <t>M3x</t>
+  </si>
+  <si>
+    <t>M3y</t>
+  </si>
+  <si>
+    <t>Q1-Pix</t>
+  </si>
+  <si>
+    <t>Q1-Pi y</t>
+  </si>
+  <si>
+    <t>Q2-Pi x</t>
+  </si>
+  <si>
+    <t>Q2-Pi y</t>
+  </si>
+  <si>
+    <t>Q3-Pi x</t>
+  </si>
+  <si>
+    <t>Q3-Pi y</t>
+  </si>
+  <si>
+    <t>Paramètres généraux</t>
+  </si>
+  <si>
+    <t>Base de temps</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>seconde</t>
+  </si>
+  <si>
+    <t>Coefficient de friction</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>mètre/seconde</t>
+  </si>
+  <si>
+    <t>Ratio de la constante d'Aarseth</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Corps en mouvement</t>
+  </si>
+  <si>
+    <t>Masse</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>gramme</t>
+  </si>
+  <si>
+    <t>Position initiale</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,0</t>
+    </r>
+  </si>
+  <si>
+    <t>mètre</t>
+  </si>
+  <si>
+    <t>Vitesse initiale</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,0</t>
+    </r>
+  </si>
+  <si>
+    <t>Accélération initiale</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0,0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mètre/ seconde</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Trois corps statiques</t>
+  </si>
+  <si>
+    <t>Corps 1</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Masse volumique moyenne</t>
+  </si>
+  <si>
+    <r>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>gramme/ mètre</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mètre</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Masse totale</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Constante d'Aarseth</t>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Attraction/ Répulsion</t>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Attraction</t>
+  </si>
+  <si>
+    <t>Corps 2</t>
+  </si>
+  <si>
+    <t>Corps 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -59,12 +583,396 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +1286,3229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5073FD5C-07DD-724E-B766-5F6D692EFFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65EF9D-E8F7-4AAB-8498-F5278F1518A5}">
+  <dimension ref="A1:AP251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="9" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1"/>
+    <col min="25" max="25" width="11.5" style="7"/>
+    <col min="26" max="26" width="11.5" style="7" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
+    <col min="30" max="30" width="13.5" customWidth="1"/>
+    <col min="31" max="31" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" style="7"/>
+    <col min="33" max="33" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="11.5" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:42" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="2:42" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="2:42" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>L12</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>M12</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>L13</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>M13</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>SUM(L14,AE4,AG4,AI4)</f>
+        <v>-1189.6783397617414</v>
+      </c>
+      <c r="AD4">
+        <f>SUM(M14,AF4,AH4,AJ4)</f>
+        <v>1928.4310895811514</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>L23*((AK4)/(((SQRT((AK4)^2))^2)+(L24^2))^(3/2))</f>
+        <v>936.64196413876039</v>
+      </c>
+      <c r="AF4" s="7">
+        <f>L23*((AL4)/((((SQRT((AL4)^2))^2)+(L24^2))^(3/2)))</f>
+        <v>2010.6192982974678</v>
+      </c>
+      <c r="AG4">
+        <f>L31*((AM4)/(((SQRT((AM4)^2))^2)+(L32^2))^(3/2))</f>
+        <v>-377.53152861446392</v>
+      </c>
+      <c r="AH4">
+        <f>L31*((AN4)/((((SQRT((AN4)^2)^2)+(L32^2))^(3/2))))</f>
+        <v>987.44596554752491</v>
+      </c>
+      <c r="AI4">
+        <f>L39*((AO4)/(((SQRT((AO4)^2))^2)+(L40^2))^(3/2))</f>
+        <v>-1748.7887752860379</v>
+      </c>
+      <c r="AJ4">
+        <f>L39*((AP4)/(((SQRT((AP4)^2)^2)+(L40^2))^(3/2)))</f>
+        <v>-1069.6341742638415</v>
+      </c>
+      <c r="AK4" s="7">
+        <f>L19-Y4</f>
+        <v>20000</v>
+      </c>
+      <c r="AL4" s="7">
+        <f>M19-Z4</f>
+        <v>7500</v>
+      </c>
+      <c r="AM4">
+        <f>L27-Y4</f>
+        <v>-20000</v>
+      </c>
+      <c r="AN4">
+        <f>M27-Z4</f>
+        <v>10000</v>
+      </c>
+      <c r="AO4">
+        <f>L35-Y4</f>
+        <v>-5000</v>
+      </c>
+      <c r="AP4">
+        <f>M35-Z4</f>
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <f>SUM(AE5,AG5,AI5,)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>SUM(AF5,AH5,AJ5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="19">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="32">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="32">
+        <v>2500</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="36">
+        <v>20000</v>
+      </c>
+      <c r="M19" s="37">
+        <v>7500</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="25">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="25">
+        <v>1</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="40">
+        <f>PRODUCT(4/3,PI(),L20^3)</f>
+        <v>523598775598.29883</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="40">
+        <f>PRODUCT(L21,L22)</f>
+        <v>523598775598.29883</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="40">
+        <f>PRODUCT(L20,L8)</f>
+        <v>10000</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="36">
+        <v>-20000</v>
+      </c>
+      <c r="M27" s="37">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="25">
+        <v>3500</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="25">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="40">
+        <f>PRODUCT(4/3,PI(),L28^3)</f>
+        <v>179594380030.21649</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="40">
+        <f>PRODUCT(L29,L30)</f>
+        <v>179594380030.21649</v>
+      </c>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="40">
+        <f>PRODUCT(L28,L8)</f>
+        <v>7000</v>
+      </c>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="47"/>
+      <c r="N33" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="36">
+        <v>-5000</v>
+      </c>
+      <c r="M35" s="37">
+        <v>-15000</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="25">
+        <v>4500</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="25">
+        <v>1</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="40">
+        <f>PRODUCT(4/3,PI(),L36^3)</f>
+        <v>381703507411.15985</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="40">
+        <f>PRODUCT(L37,L38)</f>
+        <v>381703507411.15985</v>
+      </c>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="38"/>
+      <c r="K40" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="40">
+        <f>PRODUCT(L36,L8)</f>
+        <v>9000</v>
+      </c>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X61" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X63" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X64" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X65" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X66" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X67" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X68" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X69" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X70" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X71" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X73" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X74" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X75" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X77" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X78" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X79" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X80" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X81" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X82" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X84" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X85" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X86" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X87" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X88" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X90" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X92" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X93" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X95" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X96" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X97" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X98" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X99" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X102" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X103" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X105" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X106" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X107" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X108" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X109" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X110" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X111" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X112" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X113" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X114" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X115" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X116" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X117" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X118" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X119" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X120" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X121" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X122" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X123" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X124" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X125" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X126" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X127" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X128" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X129" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X130" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X131" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X132" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X133" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X134" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X135" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X136" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X137" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X138" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X139" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X140" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X141" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X142" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X143" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X144" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X145" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X146" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X147" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X148" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X149" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X150" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X151" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X152" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X153" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X154" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X155" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X156" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X157" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X158" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X159" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X160" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X161" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X162" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X163" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X164" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X165" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X166" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X167" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X168" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X169" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X170" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X171" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X172" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X173" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X174" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X175" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X176" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X177" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X178" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X179" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X180" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X181" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X182" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X183" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X184" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X185" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X186" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X187" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X188" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X189" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X190" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X191" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X192" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X193" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X194" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X195" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X196" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X197" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X198" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X199" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X200" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X201" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X202" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X203" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X204" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X205" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X206" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X207" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X208" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X209" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X210" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X211" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X212" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="213" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X213" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X214" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X215" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X216" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X217" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X218" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X219" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X220" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X221" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X222" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X223" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="224" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X224" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X225" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="226" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X226" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="227" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X227" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X228" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X229" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="230" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X230" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X231" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X232" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X233" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X234" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X235" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X236" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X237" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="238" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X238" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="239" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X239" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="240" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X240" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X241" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="242" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X242" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X243" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X244" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X245" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X246" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X247" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X248" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="249" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X249" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X250" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X251" s="1">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49311FD-A1BF-4C85-BB53-9733FF953184}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c720145bf917415b4198ded1b11c04e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b92b2696580ca236c73df15b58fd8e19" ns3:_="" ns4:_="">
+    <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <xsd:import namespace="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9de94308-2297-4d04-a77d-26fce9df9395" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="22375818-dcd7-42e4-9660-6b33e030de66" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7B1998-DCF8-4CC9-80D5-6F122707EF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6229066B-92F7-4EA6-9DF2-5C378036B922}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F48169-2925-4BE4-9617-BBFADFCAA27E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>